--- a/hebrewOutputs/hebrew82Comperation_13_Common_alpha=0.22.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_13_Common_alpha=0.22.xlsx
@@ -103,6 +103,9 @@
     <t>bc</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>לקחתי אותו לרופא למשפחה...</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">כן (לא נשמע) אני מסכים. תיקח את הילד תבדוק אותו אא </t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>היום המצבים של הסכרת נעורים לא יודע אם יש לכם מודעת עכשיו כאילו צריכים לטפל בילד יותר, לשמור על הדיאטה שלו אא לשמור על ה... על ה...</t>
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -888,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1190,13 +1190,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1218,13 +1218,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1434,7 +1434,7 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1529,10 +1529,10 @@
         <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1585,7 +1585,7 @@
         <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1599,7 +1599,7 @@
         <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -1641,7 +1641,7 @@
         <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1669,7 +1669,7 @@
         <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
@@ -1767,7 +1767,7 @@
         <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1798,7 +1798,7 @@
         <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -1826,7 +1826,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -1921,10 +1921,10 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -1938,7 +1938,7 @@
         <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -2008,7 +2008,7 @@
         <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -2078,7 +2078,7 @@
         <v>67</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2106,7 +2106,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2229,7 +2229,7 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2257,7 +2257,7 @@
         <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
         <v>92</v>
@@ -2299,10 +2299,10 @@
         <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
